--- a/examples/ex004.Linest.xlsx
+++ b/examples/ex004.Linest.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE4E8C-9073-4357-8AED-CF527345526F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F197ECD-7E70-41C2-9A67-D644047E238A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31785" yWindow="2130" windowWidth="28770" windowHeight="17400" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
+    <workbookView xWindow="-37665" yWindow="735" windowWidth="28800" windowHeight="15435" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Lin" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1707,1069 +1708,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="mAL_idwint"/>
-      <sheetName val="mAL_lsfit"/>
-      <sheetName val="mAL_polint"/>
-      <sheetName val="mAL_ratint"/>
-      <sheetName val="mAL_spline1d"/>
-      <sheetName val="mAL_spline2d"/>
-      <sheetName val="mAL_spline3"/>
-      <sheetName val="m_CSpline"/>
-      <sheetName val="Index"/>
-      <sheetName val="Interpolate"/>
-      <sheetName val="Interp2D"/>
-      <sheetName val="Fit_Spline"/>
-      <sheetName val="Fit_Lin"/>
-      <sheetName val="Fit_Poly"/>
-      <sheetName val="Fit_NonLin"/>
-      <sheetName val="Integrate"/>
-      <sheetName val="Differentiate"/>
-      <sheetName val="Matrix"/>
-      <sheetName val="About"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12">
-        <row r="43">
-          <cell r="B43">
-            <v>1</v>
-          </cell>
-          <cell r="D43">
-            <v>0.3878423462511309</v>
-          </cell>
-          <cell r="F43">
-            <v>1</v>
-          </cell>
-          <cell r="G43" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H43">
-            <v>40.595517904643799</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>1.05</v>
-          </cell>
-          <cell r="D44">
-            <v>0.15437516963829667</v>
-          </cell>
-          <cell r="F44">
-            <v>1.25</v>
-          </cell>
-          <cell r="G44" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H44">
-            <v>31.536690924901798</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="D45">
-            <v>0.44335150439330517</v>
-          </cell>
-          <cell r="F45">
-            <v>1.5</v>
-          </cell>
-          <cell r="G45" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H45">
-            <v>22.90197458563452</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>1.1500000000000001</v>
-          </cell>
-          <cell r="D46">
-            <v>-1.3275128158091456</v>
-          </cell>
-          <cell r="F46">
-            <v>1.75</v>
-          </cell>
-          <cell r="G46" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H46">
-            <v>14.691368886841952</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>1.2000000000000002</v>
-          </cell>
-          <cell r="D47">
-            <v>0.1890396652731603</v>
-          </cell>
-          <cell r="F47">
-            <v>2</v>
-          </cell>
-          <cell r="G47" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H47">
-            <v>6.9048738285240994</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>1.2500000000000002</v>
-          </cell>
-          <cell r="D48">
-            <v>0.34105525961116046</v>
-          </cell>
-          <cell r="F48">
-            <v>2.25</v>
-          </cell>
-          <cell r="G48" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H48">
-            <v>-0.45751058931903543</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>1.3000000000000003</v>
-          </cell>
-          <cell r="D49">
-            <v>-1.6275709164790237</v>
-          </cell>
-          <cell r="F49">
-            <v>2.5</v>
-          </cell>
-          <cell r="G49" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H49">
-            <v>-7.3957843666874545</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>1.3500000000000003</v>
-          </cell>
-          <cell r="D50">
-            <v>-1.9235533668932567</v>
-          </cell>
-          <cell r="F50">
-            <v>2.75</v>
-          </cell>
-          <cell r="G50" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H50">
-            <v>-13.909947503581158</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>1.4000000000000004</v>
-          </cell>
-          <cell r="D51">
-            <v>-1.7424083296785762</v>
-          </cell>
-          <cell r="F51">
-            <v>3</v>
-          </cell>
-          <cell r="G51" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H51">
-            <v>-20.000000000000128</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>1.4500000000000004</v>
-          </cell>
-          <cell r="D52">
-            <v>-2.3053004984865981</v>
-          </cell>
-          <cell r="F52">
-            <v>3.25</v>
-          </cell>
-          <cell r="G52" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H52">
-            <v>-25.665941855944411</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>1.5000000000000004</v>
-          </cell>
-          <cell r="D53">
-            <v>-0.91153414257298415</v>
-          </cell>
-          <cell r="F53">
-            <v>3.5</v>
-          </cell>
-          <cell r="G53" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H53">
-            <v>-30.907773071413949</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>1.5500000000000005</v>
-          </cell>
-          <cell r="D54">
-            <v>-1.9451282984084357</v>
-          </cell>
-          <cell r="F54">
-            <v>3.75</v>
-          </cell>
-          <cell r="G54" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H54">
-            <v>-35.7254936464088</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>1.6000000000000005</v>
-          </cell>
-          <cell r="D55">
-            <v>-3.0462928970069454</v>
-          </cell>
-          <cell r="F55">
-            <v>4</v>
-          </cell>
-          <cell r="G55" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H55">
-            <v>-40.119103580928908</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>1.6500000000000006</v>
-          </cell>
-          <cell r="D56">
-            <v>-3.693377373794926</v>
-          </cell>
-          <cell r="F56">
-            <v>4.25</v>
-          </cell>
-          <cell r="G56" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H56">
-            <v>-44.088602874974299</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>1.7000000000000006</v>
-          </cell>
-          <cell r="D57">
-            <v>-2.1488366864842163</v>
-          </cell>
-          <cell r="F57">
-            <v>4.5</v>
-          </cell>
-          <cell r="G57" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H57">
-            <v>-47.633991528544996</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>1.7500000000000007</v>
-          </cell>
-          <cell r="D58">
-            <v>-4.011907597700727</v>
-          </cell>
-          <cell r="F58">
-            <v>4.75</v>
-          </cell>
-          <cell r="G58" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H58">
-            <v>-50.755269541640956</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>1.8000000000000007</v>
-          </cell>
-          <cell r="D59">
-            <v>-2.3789218803004504</v>
-          </cell>
-          <cell r="F59">
-            <v>5</v>
-          </cell>
-          <cell r="G59" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H59">
-            <v>-53.452436914262208</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>1.8500000000000008</v>
-          </cell>
-          <cell r="D60">
-            <v>-5.4030736644469304</v>
-          </cell>
-          <cell r="F60">
-            <v>5.25</v>
-          </cell>
-          <cell r="G60" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H60">
-            <v>-55.725493646408765</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>1.9000000000000008</v>
-          </cell>
-          <cell r="D61">
-            <v>-1.8887262995413812</v>
-          </cell>
-          <cell r="F61">
-            <v>5.5</v>
-          </cell>
-          <cell r="G61" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H61">
-            <v>-57.574439738080599</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>1.9500000000000008</v>
-          </cell>
-          <cell r="D62">
-            <v>-5.3530173447679266</v>
-          </cell>
-          <cell r="F62">
-            <v>5.75</v>
-          </cell>
-          <cell r="G62" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H62">
-            <v>-58.999275189277654</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>2.0000000000000009</v>
-          </cell>
-          <cell r="D63">
-            <v>-2.4017808575207562</v>
-          </cell>
-          <cell r="F63">
-            <v>6</v>
-          </cell>
-          <cell r="G63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H63">
-            <v>-60.000000000000057</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>2.0500000000000007</v>
-          </cell>
-          <cell r="D64">
-            <v>-2.0463231470279784</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>2.1000000000000005</v>
-          </cell>
-          <cell r="D65">
-            <v>-2.6875237050948613</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>2.1500000000000004</v>
-          </cell>
-          <cell r="D66">
-            <v>-2.8680578078146741</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="D67">
-            <v>-8.393716347107226</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>2.25</v>
-          </cell>
-          <cell r="D68">
-            <v>-3.6477618322014864</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="D69">
-            <v>-9.5406603568635155</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>2.3499999999999996</v>
-          </cell>
-          <cell r="D70">
-            <v>-8.717690264655019</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>2.3999999999999995</v>
-          </cell>
-          <cell r="D71">
-            <v>-9.4001139340722126</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>2.4499999999999993</v>
-          </cell>
-          <cell r="D72">
-            <v>-10.176999897999167</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>2.4999999999999991</v>
-          </cell>
-          <cell r="D73">
-            <v>-5.3371596774639611</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>2.5499999999999989</v>
-          </cell>
-          <cell r="D74">
-            <v>-8.7628632610341768</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>2.5999999999999988</v>
-          </cell>
-          <cell r="D75">
-            <v>-10.945458851652951</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>2.6499999999999986</v>
-          </cell>
-          <cell r="D76">
-            <v>-12.297145776931167</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>2.6999999999999984</v>
-          </cell>
-          <cell r="D77">
-            <v>-12.139099532556106</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>2.7499999999999982</v>
-          </cell>
-          <cell r="D78">
-            <v>-6.4425326551122497</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>2.799999999999998</v>
-          </cell>
-          <cell r="D79">
-            <v>-17.496690096213577</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>2.8499999999999979</v>
-          </cell>
-          <cell r="D80">
-            <v>-8.8698064337290639</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>2.8999999999999977</v>
-          </cell>
-          <cell r="D81">
-            <v>-14.22458472451585</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>2.9499999999999975</v>
-          </cell>
-          <cell r="D82">
-            <v>-11.860076148756736</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>2.9999999999999973</v>
-          </cell>
-          <cell r="D83">
-            <v>-9.1052850378763743</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>3.0499999999999972</v>
-          </cell>
-          <cell r="D84">
-            <v>-15.467155582244487</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>3.099999999999997</v>
-          </cell>
-          <cell r="D85">
-            <v>-8.183884506468285</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>3.1499999999999968</v>
-          </cell>
-          <cell r="D86">
-            <v>-15.961211468139595</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>3.1999999999999966</v>
-          </cell>
-          <cell r="D87">
-            <v>-19.590073014262362</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>3.2499999999999964</v>
-          </cell>
-          <cell r="D88">
-            <v>-13.042354782887674</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>3.2999999999999963</v>
-          </cell>
-          <cell r="D89">
-            <v>-14.665512269125919</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>3.3499999999999961</v>
-          </cell>
-          <cell r="D90">
-            <v>-21.656201597658391</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>3.3999999999999959</v>
-          </cell>
-          <cell r="D91">
-            <v>-14.583757675835542</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>3.4499999999999957</v>
-          </cell>
-          <cell r="D92">
-            <v>-27.056378523627931</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>3.4999999999999956</v>
-          </cell>
-          <cell r="D93">
-            <v>-12.819272896395393</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>3.5499999999999954</v>
-          </cell>
-          <cell r="D94">
-            <v>-18.259250585516984</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>3.5999999999999952</v>
-          </cell>
-          <cell r="D95">
-            <v>-19.176903925628896</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>3.649999999999995</v>
-          </cell>
-          <cell r="D96">
-            <v>-32.105123541307748</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>3.6999999999999948</v>
-          </cell>
-          <cell r="D97">
-            <v>-21.454573946839353</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>3.7499999999999947</v>
-          </cell>
-          <cell r="D98">
-            <v>-32.362366185388446</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>3.7999999999999945</v>
-          </cell>
-          <cell r="D99">
-            <v>-22.3367073102483</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>3.8499999999999943</v>
-          </cell>
-          <cell r="D100">
-            <v>-17.97687131693683</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>3.8999999999999941</v>
-          </cell>
-          <cell r="D101">
-            <v>-25.8678959307612</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>3.949999999999994</v>
-          </cell>
-          <cell r="D102">
-            <v>-25.098030332528879</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>3.9999999999999938</v>
-          </cell>
-          <cell r="D103">
-            <v>-20.035919683199225</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>4.0499999999999936</v>
-          </cell>
-          <cell r="D104">
-            <v>-19.147188384511818</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>4.0999999999999934</v>
-          </cell>
-          <cell r="D105">
-            <v>-19.665541161717982</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>4.1499999999999932</v>
-          </cell>
-          <cell r="D106">
-            <v>-28.588468593660345</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>4.1999999999999931</v>
-          </cell>
-          <cell r="D107">
-            <v>-32.952366679397265</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>4.2499999999999929</v>
-          </cell>
-          <cell r="D108">
-            <v>-30.347732415089776</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>4.2999999999999927</v>
-          </cell>
-          <cell r="D109">
-            <v>-43.94602669943518</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>4.3499999999999925</v>
-          </cell>
-          <cell r="D110">
-            <v>-21.360474375711373</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>4.3999999999999924</v>
-          </cell>
-          <cell r="D111">
-            <v>-35.764648024004529</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>4.4499999999999922</v>
-          </cell>
-          <cell r="D112">
-            <v>-30.848028557080941</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>4.499999999999992</v>
-          </cell>
-          <cell r="D113">
-            <v>-42.47336363884309</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>4.5499999999999918</v>
-          </cell>
-          <cell r="D114">
-            <v>-35.289679288843111</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>4.5999999999999917</v>
-          </cell>
-          <cell r="D115">
-            <v>-43.883495355495768</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>4.6499999999999915</v>
-          </cell>
-          <cell r="D116">
-            <v>-34.813976559127767</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>4.6999999999999913</v>
-          </cell>
-          <cell r="D117">
-            <v>-30.580955940405538</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>4.7499999999999911</v>
-          </cell>
-          <cell r="D118">
-            <v>-33.376045805911531</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>4.7999999999999909</v>
-          </cell>
-          <cell r="D119">
-            <v>-25.828707658307898</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>4.8499999999999908</v>
-          </cell>
-          <cell r="D120">
-            <v>-41.572273251026289</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>4.8999999999999906</v>
-          </cell>
-          <cell r="D121">
-            <v>-45.987484612659877</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>4.9499999999999904</v>
-          </cell>
-          <cell r="D122">
-            <v>-43.091358339753221</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>4.9999999999999902</v>
-          </cell>
-          <cell r="D123">
-            <v>-43.793221672965679</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>5.0499999999999901</v>
-          </cell>
-          <cell r="D124">
-            <v>-35.249326686187828</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>5.0999999999999899</v>
-          </cell>
-          <cell r="D125">
-            <v>-40.348356945882827</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>5.1499999999999897</v>
-          </cell>
-          <cell r="D126">
-            <v>-66.670191916054478</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>5.1999999999999895</v>
-          </cell>
-          <cell r="D127">
-            <v>-62.164323412585169</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>5.2499999999999893</v>
-          </cell>
-          <cell r="D128">
-            <v>-71.642755464272597</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>5.2999999999999892</v>
-          </cell>
-          <cell r="D129">
-            <v>-52.775433254330579</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>5.349999999999989</v>
-          </cell>
-          <cell r="D130">
-            <v>-35.529877850051875</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>5.3999999999999888</v>
-          </cell>
-          <cell r="D131">
-            <v>-66.680002084664679</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>5.4499999999999886</v>
-          </cell>
-          <cell r="D132">
-            <v>-67.69903466276368</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>5.4999999999999885</v>
-          </cell>
-          <cell r="D133">
-            <v>-68.625006451485731</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>5.5499999999999883</v>
-          </cell>
-          <cell r="D134">
-            <v>-74.419135247580101</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>5.5999999999999881</v>
-          </cell>
-          <cell r="D135">
-            <v>-43.131278870778708</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>5.6499999999999879</v>
-          </cell>
-          <cell r="D136">
-            <v>-62.923568925189841</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>5.6999999999999877</v>
-          </cell>
-          <cell r="D137">
-            <v>-83.127787196427775</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>5.7499999999999876</v>
-          </cell>
-          <cell r="D138">
-            <v>-70.55839815934678</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>5.7999999999999874</v>
-          </cell>
-          <cell r="D139">
-            <v>-46.383126273890156</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>5.8499999999999872</v>
-          </cell>
-          <cell r="D140">
-            <v>-44.232047554629702</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>5.899999999999987</v>
-          </cell>
-          <cell r="D141">
-            <v>-46.540139139892943</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>5.9499999999999869</v>
-          </cell>
-          <cell r="D142">
-            <v>-90.394383730388782</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>5.9999999999999867</v>
-          </cell>
-          <cell r="D143">
-            <v>-93.694239119293542</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="41">
-          <cell r="E41" t="str">
-            <v>AL_FitPolyCW</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
       <definedName name="crv_fit_linear"/>
-      <definedName name="getUFVersion"/>
+      <definedName name="unf_Version"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3075,8 +2021,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:O150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,8 +2044,8 @@
         <v>53</v>
       </c>
       <c r="G1" t="str">
-        <f>[2]!getUFVersion()</f>
-        <v>7.11</v>
+        <f>[1]!unf_Version()</f>
+        <v>7.23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3366,7 +2312,7 @@
         <v>36</v>
       </c>
       <c r="D45" s="10">
-        <f t="array" ref="D45:F45">[2]!crv_fit_linear($D$50:$D$150,$A$50:$C$150)</f>
+        <f t="array" ref="D45:F45">[1]!crv_fit_linear($D$50:$D$150,$A$50:$C$150)</f>
         <v>-4.8096034239943499</v>
       </c>
       <c r="E45" s="10">
@@ -3376,7 +2322,7 @@
         <v>-2.9213538367672309</v>
       </c>
       <c r="J45">
-        <f t="array" ref="J45:O45">[2]!crv_fit_linear($D$50:$D$150,$A$50:$C$150,2)</f>
+        <f t="array" ref="J45:O45">[1]!crv_fit_linear($D$50:$D$150,$A$50:$C$150,2)</f>
         <v>5.4463281610757663</v>
       </c>
       <c r="K45">
@@ -3400,7 +2346,7 @@
         <v>37</v>
       </c>
       <c r="D46" s="10">
-        <f t="array" ref="D46:F46">[2]!crv_fit_linear($D$50:$D$150,$A$50:$C$150,,E50:E150,K50:N51)</f>
+        <f t="array" ref="D46:F46">[1]!crv_fit_linear($D$50:$D$150,$A$50:$C$150,,E50:E150,K50:N51)</f>
         <v>7.5328204286921832</v>
       </c>
       <c r="E46" s="10">
@@ -3467,7 +2413,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>$A$48</f>
+        <f t="shared" ref="A50:A81" si="0">$A$48</f>
         <v>1</v>
       </c>
       <c r="B50">
@@ -3488,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50:G70" si="0">+$D$45+$E$45*$F50+$F$45*$F50^2</f>
+        <f t="shared" ref="G50:G70" si="1">+$D$45+$E$45*$F50+$F$45*$F50^2</f>
         <v>-1.4852463016900423</v>
       </c>
       <c r="H50">
@@ -3514,7 +2460,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B51">
@@ -3522,7 +2468,7 @@
         <v>1.05</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:C114" si="1">+B51^2</f>
+        <f t="shared" ref="C51:C114" si="2">+B51^2</f>
         <v>1.1025</v>
       </c>
       <c r="D51">
@@ -3536,15 +2482,15 @@
         <v>1.25</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5670800951037256</v>
       </c>
       <c r="H51">
-        <f t="shared" ref="H51:H70" si="2">+$D$46+$E$46*$F51+$F$46*$F51^2</f>
+        <f t="shared" ref="H51:H70" si="3">+$D$46+$E$46*$F51+$F$46*$F51^2</f>
         <v>0.87453165630575902</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51:I114" si="3">+$F$47+$E$47*$F51+$D$47*$F51^2</f>
+        <f t="shared" ref="I51:I70" si="4">+$F$47+$E$47*$F51+$D$47*$F51^2</f>
         <v>-1.5670800951037238</v>
       </c>
       <c r="K51">
@@ -3563,15 +2509,15 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:B115" si="4">+B51+0.05</f>
+        <f t="shared" ref="B52:B115" si="5">+B51+0.05</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2100000000000002</v>
       </c>
       <c r="D52">
@@ -3581,33 +2527,33 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52:F70" si="5">+F51+0.25</f>
+        <f t="shared" ref="F52:F70" si="6">+F51+0.25</f>
         <v>1.5</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.0140831181133114</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.92519233924043842</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.0140831181133088</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3225000000000002</v>
       </c>
       <c r="D53">
@@ -3617,33 +2563,33 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.8262553707188012</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.88093841514294</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.8262553707187994</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4400000000000004</v>
       </c>
       <c r="D54">
@@ -3653,33 +2599,33 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.0035968529201966</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.9927065714017456</v>
       </c>
       <c r="I54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.0035968529201913</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2500000000000002</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5625000000000004</v>
       </c>
       <c r="D55">
@@ -3689,33 +2635,33 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.5461075647174951</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.260496808016855</v>
       </c>
       <c r="I55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.546107564717488</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3000000000000003</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6900000000000006</v>
       </c>
       <c r="D56">
@@ -3725,33 +2671,33 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.4537875061106984</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.6843091249882676</v>
       </c>
       <c r="I56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.4537875061106895</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3500000000000003</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8225000000000009</v>
       </c>
       <c r="D57">
@@ -3761,33 +2707,33 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.75</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.7266366770998047</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-12.264143522315987</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9.7266366770997941</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9600000000000011</v>
       </c>
       <c r="D58">
@@ -3797,33 +2743,33 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-12.364655077684812</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-15.000000000000009</v>
       </c>
       <c r="I58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-12.364655077684802</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4500000000000004</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1025000000000014</v>
       </c>
       <c r="D59">
@@ -3833,33 +2779,33 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.25</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-15.367842707865726</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-17.891878558040336</v>
       </c>
       <c r="I59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-15.367842707865712</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5000000000000004</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2500000000000013</v>
       </c>
       <c r="D60">
@@ -3869,33 +2815,33 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-18.73619956764254</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-20.939779196436966</v>
       </c>
       <c r="I60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-18.736199567642533</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5500000000000005</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4025000000000016</v>
       </c>
       <c r="D61">
@@ -3905,33 +2851,33 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.75</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-22.469725657015267</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-24.143701915189901</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-22.46972565701525</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6000000000000005</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5600000000000018</v>
       </c>
       <c r="D62">
@@ -3941,33 +2887,33 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-26.568420975983891</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-27.503646714299137</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-26.568420975983873</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6500000000000006</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7225000000000019</v>
       </c>
       <c r="D63">
@@ -3977,33 +2923,33 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.25</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31.032285524548421</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-31.019613593764682</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-31.032285524548403</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7000000000000006</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8900000000000019</v>
       </c>
       <c r="D64">
@@ -4013,33 +2959,33 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-35.86131930270885</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-34.691602553586527</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-35.861319302708836</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7500000000000007</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0625000000000022</v>
       </c>
       <c r="D65">
@@ -4049,33 +2995,33 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.75</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-41.055522310465193</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-38.519613593764674</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-41.055522310465165</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2400000000000024</v>
       </c>
       <c r="D66">
@@ -4085,33 +3031,33 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-46.614894547817435</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-42.503646714299137</v>
       </c>
       <c r="I66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-46.614894547817407</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8500000000000008</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.422500000000003</v>
       </c>
       <c r="D67">
@@ -4121,33 +3067,33 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.25</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-52.53943601476557</v>
       </c>
       <c r="H67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-46.643701915189894</v>
       </c>
       <c r="I67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-52.539436014765542</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9000000000000008</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.610000000000003</v>
       </c>
       <c r="D68">
@@ -4157,33 +3103,33 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-58.829146711309633</v>
       </c>
       <c r="H68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-50.939779196436959</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-58.829146711309598</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9500000000000008</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8025000000000033</v>
       </c>
       <c r="D69">
@@ -4193,33 +3139,33 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.75</v>
       </c>
       <c r="G69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-65.484026637449574</v>
       </c>
       <c r="H69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-55.391878558040325</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-65.484026637449546</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000036</v>
       </c>
       <c r="D70">
@@ -4229,33 +3175,33 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-72.504075793185436</v>
       </c>
       <c r="H70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-60</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-72.504075793185393</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0500000000000007</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2025000000000032</v>
       </c>
       <c r="D71">
@@ -4267,15 +3213,15 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4100000000000019</v>
       </c>
       <c r="D72">
@@ -4287,15 +3233,15 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1500000000000004</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6225000000000014</v>
       </c>
       <c r="D73">
@@ -4307,15 +3253,15 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8400000000000007</v>
       </c>
       <c r="D74">
@@ -4327,15 +3273,15 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0625</v>
       </c>
       <c r="D75">
@@ -4347,15 +3293,15 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2899999999999991</v>
       </c>
       <c r="D76">
@@ -4367,15 +3313,15 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3499999999999996</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5224999999999982</v>
       </c>
       <c r="D77">
@@ -4387,15 +3333,15 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3999999999999995</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7599999999999971</v>
       </c>
       <c r="D78">
@@ -4407,15 +3353,15 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4499999999999993</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0024999999999968</v>
       </c>
       <c r="D79">
@@ -4427,15 +3373,15 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4999999999999991</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2499999999999956</v>
       </c>
       <c r="D80">
@@ -4447,15 +3393,15 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f>$A$48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5499999999999989</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5024999999999942</v>
       </c>
       <c r="D81">
@@ -4467,15 +3413,15 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f>$A$48</f>
+        <f t="shared" ref="A82:A113" si="7">$A$48</f>
         <v>1</v>
       </c>
       <c r="B82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5999999999999988</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7599999999999936</v>
       </c>
       <c r="D82">
@@ -4487,15 +3433,15 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6499999999999986</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0224999999999929</v>
       </c>
       <c r="D83">
@@ -4507,15 +3453,15 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6999999999999984</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2899999999999912</v>
       </c>
       <c r="D84">
@@ -4527,15 +3473,15 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7499999999999982</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5624999999999902</v>
       </c>
       <c r="D85">
@@ -4547,15 +3493,15 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.799999999999998</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8399999999999892</v>
       </c>
       <c r="D86">
@@ -4567,15 +3513,15 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8499999999999979</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1224999999999881</v>
       </c>
       <c r="D87">
@@ -4587,15 +3533,15 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8999999999999977</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4099999999999859</v>
       </c>
       <c r="D88">
@@ -4607,15 +3553,15 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9499999999999975</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7024999999999846</v>
       </c>
       <c r="D89">
@@ -4627,15 +3573,15 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9999999999999973</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.999999999999984</v>
       </c>
       <c r="D90">
@@ -4647,15 +3593,15 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0499999999999972</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3024999999999824</v>
       </c>
       <c r="D91">
@@ -4667,15 +3613,15 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.099999999999997</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6099999999999817</v>
       </c>
       <c r="D92">
@@ -4687,15 +3633,15 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1499999999999968</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9224999999999799</v>
       </c>
       <c r="D93">
@@ -4707,15 +3653,15 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1999999999999966</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.239999999999979</v>
       </c>
       <c r="D94">
@@ -4727,15 +3673,15 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2499999999999964</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.562499999999977</v>
       </c>
       <c r="D95">
@@ -4747,15 +3693,15 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2999999999999963</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.889999999999976</v>
       </c>
       <c r="D96">
@@ -4767,15 +3713,15 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3499999999999961</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.222499999999973</v>
       </c>
       <c r="D97">
@@ -4787,15 +3733,15 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3999999999999959</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.559999999999972</v>
       </c>
       <c r="D98">
@@ -4807,15 +3753,15 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4499999999999957</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.902499999999971</v>
       </c>
       <c r="D99">
@@ -4827,15 +3773,15 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4999999999999956</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.249999999999968</v>
       </c>
       <c r="D100">
@@ -4847,15 +3793,15 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5499999999999954</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.602499999999967</v>
       </c>
       <c r="D101">
@@ -4867,15 +3813,15 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5999999999999952</v>
       </c>
       <c r="C102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.959999999999965</v>
       </c>
       <c r="D102">
@@ -4887,15 +3833,15 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.649999999999995</v>
       </c>
       <c r="C103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.322499999999964</v>
       </c>
       <c r="D103">
@@ -4907,15 +3853,15 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6999999999999948</v>
       </c>
       <c r="C104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.689999999999962</v>
       </c>
       <c r="D104">
@@ -4927,15 +3873,15 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7499999999999947</v>
       </c>
       <c r="C105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.062499999999961</v>
       </c>
       <c r="D105">
@@ -4947,15 +3893,15 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7999999999999945</v>
       </c>
       <c r="C106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.439999999999959</v>
       </c>
       <c r="D106">
@@ -4967,15 +3913,15 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8499999999999943</v>
       </c>
       <c r="C107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.822499999999955</v>
       </c>
       <c r="D107">
@@ -4987,15 +3933,15 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8999999999999941</v>
       </c>
       <c r="C108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.209999999999955</v>
       </c>
       <c r="D108">
@@ -5007,15 +3953,15 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.949999999999994</v>
       </c>
       <c r="C109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.602499999999953</v>
       </c>
       <c r="D109">
@@ -5027,15 +3973,15 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999938</v>
       </c>
       <c r="C110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.99999999999995</v>
       </c>
       <c r="D110">
@@ -5047,15 +3993,15 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0499999999999936</v>
       </c>
       <c r="C111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.402499999999947</v>
       </c>
       <c r="D111">
@@ -5067,15 +4013,15 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0999999999999934</v>
       </c>
       <c r="C112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.809999999999945</v>
       </c>
       <c r="D112">
@@ -5087,15 +4033,15 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f>$A$48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1499999999999932</v>
       </c>
       <c r="C113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.222499999999943</v>
       </c>
       <c r="D113">
@@ -5107,15 +4053,15 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f>$A$48</f>
+        <f t="shared" ref="A114:A150" si="8">$A$48</f>
         <v>1</v>
       </c>
       <c r="B114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1999999999999931</v>
       </c>
       <c r="C114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.63999999999994</v>
       </c>
       <c r="D114">
@@ -5127,15 +4073,15 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2499999999999929</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:C150" si="6">+B115^2</f>
+        <f t="shared" ref="C115:C150" si="9">+B115^2</f>
         <v>18.06249999999994</v>
       </c>
       <c r="D115">
@@ -5147,15 +4093,15 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B116">
-        <f t="shared" ref="B116:B150" si="7">+B115+0.05</f>
+        <f t="shared" ref="B116:B150" si="10">+B115+0.05</f>
         <v>4.2999999999999927</v>
       </c>
       <c r="C116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18.489999999999938</v>
       </c>
       <c r="D116">
@@ -5167,15 +4113,15 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.3499999999999925</v>
       </c>
       <c r="C117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18.922499999999935</v>
       </c>
       <c r="D117">
@@ -5187,15 +4133,15 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.3999999999999924</v>
       </c>
       <c r="C118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.359999999999932</v>
       </c>
       <c r="D118">
@@ -5207,15 +4153,15 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.4499999999999922</v>
       </c>
       <c r="C119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.802499999999931</v>
       </c>
       <c r="D119">
@@ -5227,15 +4173,15 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.499999999999992</v>
       </c>
       <c r="C120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20.249999999999929</v>
       </c>
       <c r="D120">
@@ -5247,15 +4193,15 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.5499999999999918</v>
       </c>
       <c r="C121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20.702499999999926</v>
       </c>
       <c r="D121">
@@ -5267,15 +4213,15 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.5999999999999917</v>
       </c>
       <c r="C122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.159999999999922</v>
       </c>
       <c r="D122">
@@ -5287,15 +4233,15 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.6499999999999915</v>
       </c>
       <c r="C123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.622499999999921</v>
       </c>
       <c r="D123">
@@ -5307,15 +4253,15 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.6999999999999913</v>
       </c>
       <c r="C124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.089999999999918</v>
       </c>
       <c r="D124">
@@ -5327,15 +4273,15 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.7499999999999911</v>
       </c>
       <c r="C125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.562499999999915</v>
       </c>
       <c r="D125">
@@ -5347,15 +4293,15 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.7999999999999909</v>
       </c>
       <c r="C126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.039999999999914</v>
       </c>
       <c r="D126">
@@ -5367,15 +4313,15 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.8499999999999908</v>
       </c>
       <c r="C127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.522499999999912</v>
       </c>
       <c r="D127">
@@ -5387,15 +4333,15 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.8999999999999906</v>
       </c>
       <c r="C128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.009999999999909</v>
       </c>
       <c r="D128">
@@ -5407,15 +4353,15 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.9499999999999904</v>
       </c>
       <c r="C129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.502499999999905</v>
       </c>
       <c r="D129">
@@ -5427,15 +4373,15 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.9999999999999902</v>
       </c>
       <c r="C130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.999999999999901</v>
       </c>
       <c r="D130">
@@ -5447,15 +4393,15 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.0499999999999901</v>
       </c>
       <c r="C131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25.502499999999898</v>
       </c>
       <c r="D131">
@@ -5467,15 +4413,15 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.0999999999999899</v>
       </c>
       <c r="C132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26.009999999999895</v>
       </c>
       <c r="D132">
@@ -5487,15 +4433,15 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.1499999999999897</v>
       </c>
       <c r="C133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26.522499999999894</v>
       </c>
       <c r="D133">
@@ -5507,15 +4453,15 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.1999999999999895</v>
       </c>
       <c r="C134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27.039999999999893</v>
       </c>
       <c r="D134">
@@ -5527,15 +4473,15 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.2499999999999893</v>
       </c>
       <c r="C135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27.562499999999886</v>
       </c>
       <c r="D135">
@@ -5547,15 +4493,15 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.2999999999999892</v>
       </c>
       <c r="C136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28.089999999999886</v>
       </c>
       <c r="D136">
@@ -5567,15 +4513,15 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.349999999999989</v>
       </c>
       <c r="C137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28.622499999999881</v>
       </c>
       <c r="D137">
@@ -5587,15 +4533,15 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.3999999999999888</v>
       </c>
       <c r="C138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29.159999999999879</v>
       </c>
       <c r="D138">
@@ -5607,15 +4553,15 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.4499999999999886</v>
       </c>
       <c r="C139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29.702499999999876</v>
       </c>
       <c r="D139">
@@ -5627,15 +4573,15 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.4999999999999885</v>
       </c>
       <c r="C140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>30.249999999999872</v>
       </c>
       <c r="D140">
@@ -5647,15 +4593,15 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.5499999999999883</v>
       </c>
       <c r="C141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>30.802499999999871</v>
       </c>
       <c r="D141">
@@ -5667,15 +4613,15 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.5999999999999881</v>
       </c>
       <c r="C142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.359999999999868</v>
       </c>
       <c r="D142">
@@ -5687,15 +4633,15 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.6499999999999879</v>
       </c>
       <c r="C143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.922499999999864</v>
       </c>
       <c r="D143">
@@ -5707,15 +4653,15 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.6999999999999877</v>
       </c>
       <c r="C144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32.48999999999986</v>
       </c>
       <c r="D144">
@@ -5727,15 +4673,15 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.7499999999999876</v>
       </c>
       <c r="C145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33.062499999999858</v>
       </c>
       <c r="D145">
@@ -5747,15 +4693,15 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.7999999999999874</v>
       </c>
       <c r="C146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33.639999999999851</v>
       </c>
       <c r="D146">
@@ -5767,15 +4713,15 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.8499999999999872</v>
       </c>
       <c r="C147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.222499999999847</v>
       </c>
       <c r="D147">
@@ -5787,15 +4733,15 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.899999999999987</v>
       </c>
       <c r="C148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.809999999999846</v>
       </c>
       <c r="D148">
@@ -5807,15 +4753,15 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.9499999999999869</v>
       </c>
       <c r="C149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.402499999999847</v>
       </c>
       <c r="D149">
@@ -5827,15 +4773,15 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f>$A$48</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.9999999999999867</v>
       </c>
       <c r="C150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.999999999999844</v>
       </c>
       <c r="D150">

--- a/examples/ex004.Linest.xlsx
+++ b/examples/ex004.Linest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F197ECD-7E70-41C2-9A67-D644047E238A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F5C0A7-5183-42E7-9461-66EDB91A6388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37665" yWindow="735" windowWidth="28800" windowHeight="15435" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
+    <workbookView xWindow="-33330" yWindow="3990" windowWidth="28410" windowHeight="15210" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Lin" sheetId="2" r:id="rId1"/>

--- a/examples/ex004.Linest.xlsx
+++ b/examples/ex004.Linest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F5C0A7-5183-42E7-9461-66EDB91A6388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB6AD38-21DC-4EAC-B02E-09192E82B4F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33330" yWindow="3990" windowWidth="28410" windowHeight="15210" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
+    <workbookView xWindow="-1968" yWindow="2400" windowWidth="23040" windowHeight="12660" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Lin" sheetId="2" r:id="rId1"/>
@@ -2022,21 +2022,21 @@
   <dimension ref="A1:O150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>52</v>
       </c>
@@ -2045,20 +2045,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!unf_Version()</f>
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2082,21 +2082,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -2120,17 +2120,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -2146,37 +2146,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -2184,40 +2184,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2225,25 +2225,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
@@ -2259,35 +2259,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>35</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>36</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>37</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>-1.2481766428504331</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>38</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>-4.8096034239943535</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>1</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>48</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" ref="A50:A81" si="0">$A$48</f>
         <v>1</v>
@@ -2458,7 +2458,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>-2.0140831181133088</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2579,7 +2579,7 @@
         <v>-2.8262553707187994</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>-4.0035968529201913</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2651,7 +2651,7 @@
         <v>-5.546107564717488</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>-7.4537875061106895</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2723,7 +2723,7 @@
         <v>-9.7266366770997941</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>-12.364655077684802</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2795,7 +2795,7 @@
         <v>-15.367842707865712</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2831,7 +2831,7 @@
         <v>-18.736199567642533</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>-22.46972565701525</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2903,7 +2903,7 @@
         <v>-26.568420975983873</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2939,7 +2939,7 @@
         <v>-31.032285524548403</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2975,7 +2975,7 @@
         <v>-35.861319302708836</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3011,7 +3011,7 @@
         <v>-41.055522310465165</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3047,7 +3047,7 @@
         <v>-46.614894547817407</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>-52.539436014765542</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>-58.829146711309598</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3155,7 +3155,7 @@
         <v>-65.484026637449546</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>-72.504075793185393</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3351,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" ref="A82:A113" si="7">$A$48</f>
         <v>1</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3511,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3531,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3811,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3831,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -4031,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" ref="A114:A150" si="8">$A$48</f>
         <v>1</v>
@@ -4071,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4091,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4171,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4211,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4331,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4371,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4431,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4511,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4531,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4691,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4711,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <f t="shared" si="8"/>
         <v>1</v>

--- a/examples/ex004.Linest.xlsx
+++ b/examples/ex004.Linest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB6AD38-21DC-4EAC-B02E-09192E82B4F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB1BC5-84E2-4192-8A0C-D20A31456AF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1968" yWindow="2400" windowWidth="23040" windowHeight="12660" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Lin" sheetId="2" r:id="rId1"/>
@@ -2021,8 +2021,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:O150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examples/ex004.Linest.xlsx
+++ b/examples/ex004.Linest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB1BC5-84E2-4192-8A0C-D20A31456AF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CC8622-5DAD-41DB-ABE6-DD484919AD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
   </bookViews>
@@ -2021,8 +2021,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:O150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!unf_Version()</f>
-        <v>7.26</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
